--- a/docs/shr-core-MedicationRequest.xlsx
+++ b/docs/shr-core-MedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="391">
   <si>
     <t>Path</t>
   </si>
@@ -488,26 +488,6 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>MedicationOrder.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
-</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -540,6 +520,9 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Recipient-extension"/&gt;</t>
   </si>
   <si>
+    <t>MedicationOrder.extension.value[x]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
@@ -728,21 +711,44 @@
     <t>PV1-19-Visit Number</t>
   </si>
   <si>
+    <t>MedicationOrder.reason[x]</t>
+  </si>
+  <si>
+    <t>MedicationOrder:argoprofile.reason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}</t>
+  </si>
+  <si>
+    <t>Reason or indication for writing the prescription</t>
+  </si>
+  <si>
+    <t>Can be the reason or the indication for writing the prescription.</t>
+  </si>
+  <si>
+    <t>Codes indicating why the medication was ordered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>reason.observation or reason.observation[code=ASSERTION].value</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>ORC-16-Order Control Code Reason /RXE-27-Give Indication/RXO-20-Indication / RXD-21-Indication / RXG-22-Indication / RXA-19-Indication</t>
+  </si>
+  <si>
     <t>MedicationOrder.reasonCodeableConcept</t>
   </si>
   <si>
-    <t>Reason or indication for writing the prescription</t>
-  </si>
-  <si>
-    <t>Can be the reason or the indication for writing the prescription.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t>MedicationOrder.reason[x]</t>
-  </si>
-  <si>
     <t>MedicationOrder.note</t>
   </si>
   <si>
@@ -752,11 +758,11 @@
     <t>Extra information about the prescription that could not be conveyed by the other attributes.</t>
   </si>
   <si>
-    <t>MedicationOrder.medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}
-</t>
+    <t>MedicationOrder.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -772,9 +778,6 @@
   </si>
   <si>
     <t>http://fhir.org/guides/argonaut/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t>MedicationOrder.medication[x]</t>
   </si>
   <si>
     <t>consumable.administrableMedication</t>
@@ -895,10 +898,6 @@
     <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false  CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
   </si>
   <si>
@@ -917,7 +916,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>MedicationOrder.dosageInstruction.site[x]</t>
@@ -1385,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4090,7 +4089,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4113,7 +4112,7 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>146</v>
@@ -4146,13 +4145,11 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4643,7 +4640,7 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>146</v>
@@ -4676,11 +4673,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -5148,7 +5147,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5204,13 +5203,11 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5254,38 +5251,40 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="L37" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5334,7 +5333,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5349,7 +5348,7 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>42</v>
@@ -5360,7 +5359,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5371,7 +5370,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5380,16 +5379,16 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5413,7 +5412,7 @@
         <v>42</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>42</v>
@@ -5440,13 +5439,13 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
@@ -5455,18 +5454,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5474,13 +5473,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>42</v>
@@ -5489,13 +5488,13 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5519,7 +5518,7 @@
         <v>42</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>42</v>
@@ -5546,13 +5545,13 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
@@ -5561,18 +5560,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5586,22 +5585,22 @@
         <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5610,7 +5609,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>42</v>
@@ -5625,16 +5624,16 @@
         <v>42</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5652,10 +5651,10 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>48</v>
@@ -5667,10 +5666,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5678,7 +5677,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5686,7 +5685,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>48</v>
@@ -5698,16 +5697,16 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5731,14 +5730,16 @@
         <v>42</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5756,7 +5757,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5771,7 +5772,7 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>42</v>
@@ -5782,40 +5783,38 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5840,10 +5839,10 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>42</v>
@@ -5864,13 +5863,13 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -5879,7 +5878,7 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
@@ -5888,9 +5887,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5898,30 +5897,32 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5970,13 +5971,13 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
@@ -5985,18 +5986,18 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6019,13 +6020,13 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6076,7 +6077,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6091,18 +6092,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6110,30 +6111,32 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6158,13 +6161,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
@@ -6182,7 +6185,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6197,20 +6200,22 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6231,13 +6236,13 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6264,31 +6269,29 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6303,18 +6306,18 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6340,10 +6343,10 @@
         <v>145</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6367,16 +6370,14 @@
         <v>42</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="X47" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6394,7 +6395,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6418,9 +6419,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6428,32 +6429,30 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6502,7 +6501,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6517,18 +6516,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6551,15 +6550,17 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6584,13 +6585,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6608,10 +6609,10 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>48</v>
@@ -6623,18 +6624,18 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6657,16 +6658,16 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6716,13 +6717,13 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>42</v>
@@ -6731,18 +6732,18 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6762,16 +6763,16 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6795,14 +6796,16 @@
         <v>42</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6820,7 +6823,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6835,7 +6838,7 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>42</v>
@@ -6846,18 +6849,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6866,18 +6869,20 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -6926,13 +6931,13 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
@@ -6941,7 +6946,7 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>42</v>
@@ -6950,41 +6955,41 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="I53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7010,13 +7015,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7034,13 +7039,13 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
@@ -7049,18 +7054,18 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7083,17 +7088,15 @@
         <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7142,13 +7145,13 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>42</v>
@@ -7157,18 +7160,18 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7188,16 +7191,16 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7224,10 +7227,10 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="Y55" t="s" s="2">
         <v>42</v>
@@ -7248,7 +7251,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7263,29 +7266,29 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7294,19 +7297,19 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7356,13 +7359,13 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
@@ -7371,50 +7374,52 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="C57" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I57" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7440,10 +7445,10 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="Y57" t="s" s="2">
         <v>42</v>
@@ -7452,25 +7457,23 @@
         <v>42</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
@@ -7479,7 +7482,7 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>42</v>
@@ -7490,7 +7493,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7513,13 +7516,13 @@
         <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7543,16 +7546,14 @@
         <v>42</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7570,7 +7571,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7585,18 +7586,18 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7622,10 +7623,10 @@
         <v>145</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7649,16 +7650,14 @@
         <v>42</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7676,7 +7675,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7691,18 +7690,18 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7725,17 +7724,15 @@
         <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7760,13 +7757,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7784,7 +7781,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7799,22 +7796,20 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7835,16 +7830,16 @@
         <v>49</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7870,29 +7865,29 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AB61" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7907,18 +7902,18 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7941,15 +7936,17 @@
         <v>49</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -7971,14 +7968,16 @@
         <v>42</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -7996,7 +7995,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8011,18 +8010,18 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8045,15 +8044,17 @@
         <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8075,14 +8076,16 @@
         <v>42</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8100,7 +8103,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8115,18 +8118,18 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8149,15 +8152,17 @@
         <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>145</v>
+        <v>318</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8182,13 +8187,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8206,7 +8211,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8221,18 +8226,18 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8255,17 +8260,15 @@
         <v>49</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8290,11 +8293,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8312,7 +8317,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8327,18 +8332,18 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8358,20 +8363,18 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8420,7 +8423,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8435,29 +8438,29 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8466,19 +8469,19 @@
         <v>42</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>312</v>
+        <v>65</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8528,13 +8531,13 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
@@ -8543,50 +8546,50 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>315</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>316</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>321</v>
+        <v>67</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8636,13 +8639,13 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>42</v>
@@ -8651,18 +8654,18 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8685,15 +8688,17 @@
         <v>49</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8742,7 +8747,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8757,18 +8762,18 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>42</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8788,19 +8793,23 @@
         <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8848,7 +8857,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -8863,7 +8872,7 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>42</v>
@@ -8874,18 +8883,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -8894,19 +8903,19 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>65</v>
+        <v>345</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -8956,13 +8965,13 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>42</v>
@@ -8971,51 +8980,49 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>61</v>
+        <v>348</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I72" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9064,13 +9071,13 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>42</v>
@@ -9079,18 +9086,18 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9113,16 +9120,16 @@
         <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9172,7 +9179,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9187,18 +9194,18 @@
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>336</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9221,20 +9228,16 @@
         <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9297,7 +9300,7 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>42</v>
@@ -9308,7 +9311,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9328,20 +9331,18 @@
         <v>42</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>344</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -9390,7 +9391,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9405,29 +9406,31 @@
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>348</v>
+        <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="C76" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
@@ -9436,18 +9439,20 @@
         <v>42</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>351</v>
+        <v>64</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>352</v>
+        <v>65</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -9484,25 +9489,23 @@
         <v>42</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>42</v>
@@ -9511,20 +9514,22 @@
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>354</v>
+        <v>61</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>42</v>
       </c>
@@ -9542,20 +9547,16 @@
         <v>42</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="K77" s="2"/>
       <c r="L77" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -9604,13 +9605,13 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>42</v>
@@ -9619,7 +9620,7 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>361</v>
+        <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>42</v>
@@ -9630,38 +9631,40 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>363</v>
+        <v>169</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -9710,13 +9713,13 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>42</v>
@@ -9725,7 +9728,7 @@
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>365</v>
+        <v>122</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>42</v>
@@ -9736,7 +9739,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9744,7 +9747,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>48</v>
@@ -9756,16 +9759,16 @@
         <v>42</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>60</v>
+        <v>375</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9792,13 +9795,13 @@
         <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -9816,10 +9819,10 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>48</v>
@@ -9831,31 +9834,29 @@
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>61</v>
+        <v>378</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>42</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -9864,20 +9865,18 @@
         <v>42</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>65</v>
+        <v>381</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -9902,35 +9901,37 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB80" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
@@ -9939,22 +9940,20 @@
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>42</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>42</v>
       </c>
@@ -9972,14 +9971,16 @@
         <v>42</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K81" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="L81" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10030,13 +10031,13 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>42</v>
@@ -10051,437 +10052,11 @@
         <v>42</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL85" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL85">
+  <autoFilter ref="A1:AL81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10491,7 +10066,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
